--- a/文献阅读记录.xlsx
+++ b/文献阅读记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -117,6 +117,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Shaoqing Ren, </t>
     </r>
     <r>
@@ -230,6 +237,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Jifeng Dai
 Yi Li∗
 </t>
@@ -333,7 +347,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，提高效率。</t>
+      <t>，提高效率。本论文为了实现将整个网络卷积化Fully Convolutional，提出了deeper ROI-wise这一概念和操作，摒弃costly Fully connected layer，同时整个network architecture的backbone采用ResNet。</t>
     </r>
   </si>
   <si>
@@ -343,104 +357,88 @@
     <t>提出了一种新的算法：R-FCN</t>
   </si>
   <si>
-    <r>
-      <t>本论文为了实现将整个网络卷积化Fully Convolutional，提出了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>deeper ROI-wise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+    <t>You Only Look Once:Unified, Real-Time Object Detection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Joseph Redmon∗
+, Santosh Divvala∗†, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这一概念和操作，摒弃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>costly Fully connected layer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>Ross Girshick¶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，同时整个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>network architecture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t xml:space="preserve">
+, Ali Farhadi∗†</t>
+    </r>
+  </si>
+  <si>
+    <t>新算法介绍</t>
+  </si>
+  <si>
+    <t>本文提出了一种one step的object detection模型/算法——YOLO：You Only Look Once，相对于two step模型/算法，其整体性能是Fast但是accurancy较低。</t>
+  </si>
+  <si>
+    <t>第２</t>
+  </si>
+  <si>
+    <t>提出了一种新的算法：YOLO</t>
+  </si>
+  <si>
+    <r>
+      <t>multi-modar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>backbone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ResNet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
+      <t>/deep learning/CV</t>
+    </r>
+  </si>
+  <si>
+    <t>基于多模态数据的文本摘要生成研究</t>
+  </si>
+  <si>
+    <t>电子科技大学研究生毕业论文</t>
+  </si>
+  <si>
+    <t>新算法应用</t>
+  </si>
+  <si>
+    <t>本文研究多模态数据的文本摘要生成，即基于原始输入信息为多模态数据，但是输出结果是基于原始信息的一段总结性文本。</t>
+  </si>
+  <si>
+    <t>第４章</t>
+  </si>
+  <si>
+    <t>提出了一种新的算法应用</t>
+  </si>
+  <si>
+    <t>基于深度学习的商品图像分类研究与实现</t>
+  </si>
+  <si>
+    <t>基于多模态融合的商品图像分类算法实现</t>
+  </si>
+  <si>
+    <t>第３　４　５章</t>
   </si>
 </sst>
 </file>
@@ -450,8 +448,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -484,14 +482,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,116 +511,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,181 +633,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,6 +875,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -909,15 +916,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -931,152 +929,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,8 +1087,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1101,11 +1099,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1432,19 +1427,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
+    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="7.55555555555556" customWidth="1"/>
     <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="11.4444444444444" customWidth="1"/>
     <col min="11" max="11" width="17.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="26.4444444444444" customWidth="1"/>
     <col min="16" max="16" width="15.4444444444444" customWidth="1"/>
     <col min="17" max="17" width="16.3333333333333" customWidth="1"/>
     <col min="18" max="19" width="8.88888888888889" style="1"/>
@@ -1559,7 +1556,7 @@
       <c r="H3" s="5">
         <v>43770</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -1617,7 +1614,7 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
@@ -1635,7 +1632,7 @@
       <c r="J5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="L5" t="s">
@@ -1645,9 +1642,91 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="147" spans="11:11">
-      <c r="K6" s="11" t="s">
+    <row r="6" ht="93" customHeight="1" spans="1:13">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="75" spans="1:13">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="56" customHeight="1" spans="1:13">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
